--- a/natmiOut/OldD4/LR-pairs_lrc2p/Icam5-Itgal.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Icam5-Itgal.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -85,13 +85,13 @@
     <t>M1</t>
   </si>
   <si>
+    <t>M2</t>
+  </si>
+  <si>
     <t>Icam5</t>
   </si>
   <si>
     <t>Itgal</t>
-  </si>
-  <si>
-    <t>M2</t>
   </si>
   <si>
     <t>sCs</t>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T16"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.853832149675356</v>
+        <v>0.9570683333333334</v>
       </c>
       <c r="H2">
-        <v>0.853832149675356</v>
+        <v>2.871205</v>
       </c>
       <c r="I2">
-        <v>0.3463912800188694</v>
+        <v>0.3002693237122938</v>
       </c>
       <c r="J2">
-        <v>0.3463912800188694</v>
+        <v>0.3002693237122938</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.15417816452229</v>
+        <v>0.1757273333333333</v>
       </c>
       <c r="N2">
-        <v>0.15417816452229</v>
+        <v>0.527182</v>
       </c>
       <c r="O2">
-        <v>0.004913164133574258</v>
+        <v>0.00403052093865001</v>
       </c>
       <c r="P2">
-        <v>0.004913164133574258</v>
+        <v>0.004035374510811824</v>
       </c>
       <c r="Q2">
-        <v>0.1316422736470676</v>
+        <v>0.1681830660344445</v>
       </c>
       <c r="R2">
-        <v>0.1316422736470676</v>
+        <v>1.51364759431</v>
       </c>
       <c r="S2">
-        <v>0.001701877213171587</v>
+        <v>0.001210241796456678</v>
       </c>
       <c r="T2">
-        <v>0.001701877213171587</v>
+        <v>0.001211699175287295</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.853832149675356</v>
+        <v>0.9570683333333334</v>
       </c>
       <c r="H3">
-        <v>0.853832149675356</v>
+        <v>2.871205</v>
       </c>
       <c r="I3">
-        <v>0.3463912800188694</v>
+        <v>0.3002693237122938</v>
       </c>
       <c r="J3">
-        <v>0.3463912800188694</v>
+        <v>0.3002693237122938</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.277645784240268</v>
+        <v>0.362774</v>
       </c>
       <c r="N3">
-        <v>0.277645784240268</v>
+        <v>1.088322</v>
       </c>
       <c r="O3">
-        <v>0.008847681597416909</v>
+        <v>0.008320664607276909</v>
       </c>
       <c r="P3">
-        <v>0.008847681597416909</v>
+        <v>0.008330684390506021</v>
       </c>
       <c r="Q3">
-        <v>0.2370628968061681</v>
+        <v>0.3471995075566667</v>
       </c>
       <c r="R3">
-        <v>0.2370628968061681</v>
+        <v>3.12479556801</v>
       </c>
       <c r="S3">
-        <v>0.003064759753728638</v>
+        <v>0.002498440334463856</v>
       </c>
       <c r="T3">
-        <v>0.003064759753728638</v>
+        <v>0.002501448967997805</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,61 +649,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.853832149675356</v>
+        <v>0.9570683333333334</v>
       </c>
       <c r="H4">
-        <v>0.853832149675356</v>
+        <v>2.871205</v>
       </c>
       <c r="I4">
-        <v>0.3463912800188694</v>
+        <v>0.3002693237122938</v>
       </c>
       <c r="J4">
-        <v>0.3463912800188694</v>
+        <v>0.3002693237122938</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>9.24253756514608</v>
+        <v>18.888837</v>
       </c>
       <c r="N4">
-        <v>9.24253756514608</v>
+        <v>56.666511</v>
       </c>
       <c r="O4">
-        <v>0.2945300601352236</v>
+        <v>0.4332385383145499</v>
       </c>
       <c r="P4">
-        <v>0.2945300601352236</v>
+        <v>0.4337602461882952</v>
       </c>
       <c r="Q4">
-        <v>7.891575717703908</v>
+        <v>18.077907746195</v>
       </c>
       <c r="R4">
-        <v>7.891575717703908</v>
+        <v>162.701169715755</v>
       </c>
       <c r="S4">
-        <v>0.1020226445342747</v>
+        <v>0.1300882429058126</v>
       </c>
       <c r="T4">
-        <v>0.1020226445342747</v>
+        <v>0.1302448957762374</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,61 +711,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>25</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.853832149675356</v>
+        <v>0.9570683333333334</v>
       </c>
       <c r="H5">
-        <v>0.853832149675356</v>
+        <v>2.871205</v>
       </c>
       <c r="I5">
-        <v>0.3463912800188694</v>
+        <v>0.3002693237122938</v>
       </c>
       <c r="J5">
-        <v>0.3463912800188694</v>
+        <v>0.3002693237122938</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>21.5489483596644</v>
+        <v>24.01450566666666</v>
       </c>
       <c r="N5">
-        <v>21.5489483596644</v>
+        <v>72.04351699999999</v>
       </c>
       <c r="O5">
-        <v>0.6866959437802914</v>
+        <v>0.5508020072052686</v>
       </c>
       <c r="P5">
-        <v>0.6866959437802914</v>
+        <v>0.5514652855580013</v>
       </c>
       <c r="Q5">
-        <v>18.39918490117549</v>
+        <v>22.98352291422055</v>
       </c>
       <c r="R5">
-        <v>18.39918490117549</v>
+        <v>206.851706227985</v>
       </c>
       <c r="S5">
-        <v>0.2378654869498207</v>
+        <v>0.1653889462029</v>
       </c>
       <c r="T5">
-        <v>0.2378654869498207</v>
+        <v>0.165588108345308</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,61 +773,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
         <v>26</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.853832149675356</v>
+        <v>0.9570683333333334</v>
       </c>
       <c r="H6">
-        <v>0.853832149675356</v>
+        <v>2.871205</v>
       </c>
       <c r="I6">
-        <v>0.3463912800188694</v>
+        <v>0.3002693237122938</v>
       </c>
       <c r="J6">
-        <v>0.3463912800188694</v>
+        <v>0.3002693237122938</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.157315794661566</v>
+        <v>0.1573175</v>
       </c>
       <c r="N6">
-        <v>0.157315794661566</v>
+        <v>0.314635</v>
       </c>
       <c r="O6">
-        <v>0.005013150353493771</v>
+        <v>0.003608268934254619</v>
       </c>
       <c r="P6">
-        <v>0.005013150353493771</v>
+        <v>0.002408409352385472</v>
       </c>
       <c r="Q6">
-        <v>0.1343212831337718</v>
+        <v>0.1505635975291667</v>
       </c>
       <c r="R6">
-        <v>0.1343212831337718</v>
+        <v>0.9033815851750001</v>
       </c>
       <c r="S6">
-        <v>0.001736511567873755</v>
+        <v>0.001083452472660713</v>
       </c>
       <c r="T6">
-        <v>0.001736511567873755</v>
+        <v>0.0007231714474631491</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,61 +835,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
         <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1.2460044150402</v>
+        <v>1.307927666666667</v>
       </c>
       <c r="H7">
-        <v>1.2460044150402</v>
+        <v>3.923783</v>
       </c>
       <c r="I7">
-        <v>0.5054916992749012</v>
+        <v>0.4103474561390758</v>
       </c>
       <c r="J7">
-        <v>0.5054916992749012</v>
+        <v>0.4103474561390758</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.15417816452229</v>
+        <v>0.1757273333333333</v>
       </c>
       <c r="N7">
-        <v>0.15417816452229</v>
+        <v>0.527182</v>
       </c>
       <c r="O7">
-        <v>0.004913164133574258</v>
+        <v>0.00403052093865001</v>
       </c>
       <c r="P7">
-        <v>0.004913164133574258</v>
+        <v>0.004035374510811824</v>
       </c>
       <c r="Q7">
-        <v>0.1921066736975677</v>
+        <v>0.2298386410562222</v>
       </c>
       <c r="R7">
-        <v>0.1921066736975677</v>
+        <v>2.068547769506</v>
       </c>
       <c r="S7">
-        <v>0.00248356368669695</v>
+        <v>0.001653914014090311</v>
       </c>
       <c r="T7">
-        <v>0.00248356368669695</v>
+        <v>0.001655905665080099</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,61 +897,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
         <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>1.2460044150402</v>
+        <v>1.307927666666667</v>
       </c>
       <c r="H8">
-        <v>1.2460044150402</v>
+        <v>3.923783</v>
       </c>
       <c r="I8">
-        <v>0.5054916992749012</v>
+        <v>0.4103474561390758</v>
       </c>
       <c r="J8">
-        <v>0.5054916992749012</v>
+        <v>0.4103474561390758</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.277645784240268</v>
+        <v>0.362774</v>
       </c>
       <c r="N8">
-        <v>0.277645784240268</v>
+        <v>1.088322</v>
       </c>
       <c r="O8">
-        <v>0.008847681597416909</v>
+        <v>0.008320664607276909</v>
       </c>
       <c r="P8">
-        <v>0.008847681597416909</v>
+        <v>0.008330684390506021</v>
       </c>
       <c r="Q8">
-        <v>0.3459478729806727</v>
+        <v>0.4744821513473333</v>
       </c>
       <c r="R8">
-        <v>0.3459478729806727</v>
+        <v>4.270339362126</v>
       </c>
       <c r="S8">
-        <v>0.004472429605321545</v>
+        <v>0.003414363554982521</v>
       </c>
       <c r="T8">
-        <v>0.004472429605321545</v>
+        <v>0.003418475147541653</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,61 +959,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D9" t="s">
         <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>1.2460044150402</v>
+        <v>1.307927666666667</v>
       </c>
       <c r="H9">
-        <v>1.2460044150402</v>
+        <v>3.923783</v>
       </c>
       <c r="I9">
-        <v>0.5054916992749012</v>
+        <v>0.4103474561390758</v>
       </c>
       <c r="J9">
-        <v>0.5054916992749012</v>
+        <v>0.4103474561390758</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>9.24253756514608</v>
+        <v>18.888837</v>
       </c>
       <c r="N9">
-        <v>9.24253756514608</v>
+        <v>56.666511</v>
       </c>
       <c r="O9">
-        <v>0.2945300601352236</v>
+        <v>0.4332385383145499</v>
       </c>
       <c r="P9">
-        <v>0.2945300601352236</v>
+        <v>0.4337602461882952</v>
       </c>
       <c r="Q9">
-        <v>11.51624261234692</v>
+        <v>24.705232503457</v>
       </c>
       <c r="R9">
-        <v>11.51624261234692</v>
+        <v>222.347092531113</v>
       </c>
       <c r="S9">
-        <v>0.148882500585293</v>
+        <v>0.1777783320987871</v>
       </c>
       <c r="T9">
-        <v>0.148882500585293</v>
+        <v>0.1779924135976262</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,61 +1021,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
         <v>23</v>
       </c>
-      <c r="C10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" t="s">
-        <v>25</v>
-      </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>1.2460044150402</v>
+        <v>1.307927666666667</v>
       </c>
       <c r="H10">
-        <v>1.2460044150402</v>
+        <v>3.923783</v>
       </c>
       <c r="I10">
-        <v>0.5054916992749012</v>
+        <v>0.4103474561390758</v>
       </c>
       <c r="J10">
-        <v>0.5054916992749012</v>
+        <v>0.4103474561390758</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>21.5489483596644</v>
+        <v>24.01450566666666</v>
       </c>
       <c r="N10">
-        <v>21.5489483596644</v>
+        <v>72.04351699999999</v>
       </c>
       <c r="O10">
-        <v>0.6866959437802914</v>
+        <v>0.5508020072052686</v>
       </c>
       <c r="P10">
-        <v>0.6866959437802914</v>
+        <v>0.5514652855580013</v>
       </c>
       <c r="Q10">
-        <v>26.85008479561512</v>
+        <v>31.40923636275677</v>
       </c>
       <c r="R10">
-        <v>26.85008479561512</v>
+        <v>282.6831272648109</v>
       </c>
       <c r="S10">
-        <v>0.3471190995066816</v>
+        <v>0.2260202024929789</v>
       </c>
       <c r="T10">
-        <v>0.3471190995066816</v>
+        <v>0.2262923770777348</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,61 +1083,61 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D11" t="s">
         <v>26</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>1.2460044150402</v>
+        <v>1.307927666666667</v>
       </c>
       <c r="H11">
-        <v>1.2460044150402</v>
+        <v>3.923783</v>
       </c>
       <c r="I11">
-        <v>0.5054916992749012</v>
+        <v>0.4103474561390758</v>
       </c>
       <c r="J11">
-        <v>0.5054916992749012</v>
+        <v>0.4103474561390758</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.157315794661566</v>
+        <v>0.1573175</v>
       </c>
       <c r="N11">
-        <v>0.157315794661566</v>
+        <v>0.314635</v>
       </c>
       <c r="O11">
-        <v>0.005013150353493771</v>
+        <v>0.003608268934254619</v>
       </c>
       <c r="P11">
-        <v>0.005013150353493771</v>
+        <v>0.002408409352385472</v>
       </c>
       <c r="Q11">
-        <v>0.1960161747038688</v>
+        <v>0.2057599107008333</v>
       </c>
       <c r="R11">
-        <v>0.1960161747038688</v>
+        <v>1.234559464205</v>
       </c>
       <c r="S11">
-        <v>0.002534105890908138</v>
+        <v>0.001480643978237037</v>
       </c>
       <c r="T11">
-        <v>0.002534105890908138</v>
+        <v>0.0009882846510929375</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1145,61 +1145,61 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
         <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.36509889679157</v>
+        <v>0.5236893333333333</v>
       </c>
       <c r="H12">
-        <v>0.36509889679157</v>
+        <v>1.571068</v>
       </c>
       <c r="I12">
-        <v>0.1481170207062293</v>
+        <v>0.164301582738267</v>
       </c>
       <c r="J12">
-        <v>0.1481170207062293</v>
+        <v>0.164301582738267</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.15417816452229</v>
+        <v>0.1757273333333333</v>
       </c>
       <c r="N12">
-        <v>0.15417816452229</v>
+        <v>0.527182</v>
       </c>
       <c r="O12">
-        <v>0.004913164133574258</v>
+        <v>0.00403052093865001</v>
       </c>
       <c r="P12">
-        <v>0.004913164133574258</v>
+        <v>0.004035374510811824</v>
       </c>
       <c r="Q12">
-        <v>0.05629027777643725</v>
+        <v>0.09202653004177778</v>
       </c>
       <c r="R12">
-        <v>0.05629027777643725</v>
+        <v>0.828238770376</v>
       </c>
       <c r="S12">
-        <v>0.0007277232337057217</v>
+        <v>0.0006622209694799222</v>
       </c>
       <c r="T12">
-        <v>0.0007277232337057217</v>
+        <v>0.0006630184190680424</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1207,61 +1207,61 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D13" t="s">
         <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.36509889679157</v>
+        <v>0.5236893333333333</v>
       </c>
       <c r="H13">
-        <v>0.36509889679157</v>
+        <v>1.571068</v>
       </c>
       <c r="I13">
-        <v>0.1481170207062293</v>
+        <v>0.164301582738267</v>
       </c>
       <c r="J13">
-        <v>0.1481170207062293</v>
+        <v>0.164301582738267</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.277645784240268</v>
+        <v>0.362774</v>
       </c>
       <c r="N13">
-        <v>0.277645784240268</v>
+        <v>1.088322</v>
       </c>
       <c r="O13">
-        <v>0.008847681597416909</v>
+        <v>0.008320664607276909</v>
       </c>
       <c r="P13">
-        <v>0.008847681597416909</v>
+        <v>0.008330684390506021</v>
       </c>
       <c r="Q13">
-        <v>0.1013681695249521</v>
+        <v>0.1899808742106667</v>
       </c>
       <c r="R13">
-        <v>0.1013681695249521</v>
+        <v>1.709827867896</v>
       </c>
       <c r="S13">
-        <v>0.001310492238366724</v>
+        <v>0.001367098364409877</v>
       </c>
       <c r="T13">
-        <v>0.001310492238366724</v>
+        <v>0.001368744630653114</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1269,61 +1269,61 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D14" t="s">
         <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.36509889679157</v>
+        <v>0.5236893333333333</v>
       </c>
       <c r="H14">
-        <v>0.36509889679157</v>
+        <v>1.571068</v>
       </c>
       <c r="I14">
-        <v>0.1481170207062293</v>
+        <v>0.164301582738267</v>
       </c>
       <c r="J14">
-        <v>0.1481170207062293</v>
+        <v>0.164301582738267</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>9.24253756514608</v>
+        <v>18.888837</v>
       </c>
       <c r="N14">
-        <v>9.24253756514608</v>
+        <v>56.666511</v>
       </c>
       <c r="O14">
-        <v>0.2945300601352236</v>
+        <v>0.4332385383145499</v>
       </c>
       <c r="P14">
-        <v>0.2945300601352236</v>
+        <v>0.4337602461882952</v>
       </c>
       <c r="Q14">
-        <v>3.374440268589477</v>
+        <v>9.891882455971999</v>
       </c>
       <c r="R14">
-        <v>3.374440268589477</v>
+        <v>89.026942103748</v>
       </c>
       <c r="S14">
-        <v>0.04362491501565589</v>
+        <v>0.07118177754829387</v>
       </c>
       <c r="T14">
-        <v>0.04362491501565589</v>
+        <v>0.07126749497767723</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1331,61 +1331,61 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
         <v>23</v>
       </c>
-      <c r="C15" t="s">
-        <v>24</v>
-      </c>
-      <c r="D15" t="s">
-        <v>25</v>
-      </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.36509889679157</v>
+        <v>0.5236893333333333</v>
       </c>
       <c r="H15">
-        <v>0.36509889679157</v>
+        <v>1.571068</v>
       </c>
       <c r="I15">
-        <v>0.1481170207062293</v>
+        <v>0.164301582738267</v>
       </c>
       <c r="J15">
-        <v>0.1481170207062293</v>
+        <v>0.164301582738267</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>21.5489483596644</v>
+        <v>24.01450566666666</v>
       </c>
       <c r="N15">
-        <v>21.5489483596644</v>
+        <v>72.04351699999999</v>
       </c>
       <c r="O15">
-        <v>0.6866959437802914</v>
+        <v>0.5508020072052686</v>
       </c>
       <c r="P15">
-        <v>0.6866959437802914</v>
+        <v>0.5514652855580013</v>
       </c>
       <c r="Q15">
-        <v>7.867497273131984</v>
+        <v>12.57614046290622</v>
       </c>
       <c r="R15">
-        <v>7.867497273131984</v>
+        <v>113.185264166156</v>
       </c>
       <c r="S15">
-        <v>0.1017113573237891</v>
+        <v>0.09049764155923996</v>
       </c>
       <c r="T15">
-        <v>0.1017113573237891</v>
+        <v>0.09060661924238998</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1393,61 +1393,371 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C16" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D16" t="s">
         <v>26</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.36509889679157</v>
+        <v>0.5236893333333333</v>
       </c>
       <c r="H16">
-        <v>0.36509889679157</v>
+        <v>1.571068</v>
       </c>
       <c r="I16">
-        <v>0.1481170207062293</v>
+        <v>0.164301582738267</v>
       </c>
       <c r="J16">
-        <v>0.1481170207062293</v>
+        <v>0.164301582738267</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.157315794661566</v>
+        <v>0.1573175</v>
       </c>
       <c r="N16">
-        <v>0.157315794661566</v>
+        <v>0.314635</v>
       </c>
       <c r="O16">
-        <v>0.005013150353493771</v>
+        <v>0.003608268934254619</v>
       </c>
       <c r="P16">
-        <v>0.005013150353493771</v>
+        <v>0.002408409352385472</v>
       </c>
       <c r="Q16">
-        <v>0.0574358230788269</v>
+        <v>0.08238549669666667</v>
       </c>
       <c r="R16">
-        <v>0.0574358230788269</v>
+        <v>0.49431298018</v>
       </c>
       <c r="S16">
-        <v>0.0007425328947118778</v>
+        <v>0.0005928442968433536</v>
       </c>
       <c r="T16">
-        <v>0.0007425328947118778</v>
+        <v>0.0003957054684785776</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G17">
+        <v>0.398681</v>
+      </c>
+      <c r="H17">
+        <v>1.196043</v>
+      </c>
+      <c r="I17">
+        <v>0.1250816374103636</v>
+      </c>
+      <c r="J17">
+        <v>0.1250816374103636</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>0.1757273333333333</v>
+      </c>
+      <c r="N17">
+        <v>0.527182</v>
+      </c>
+      <c r="O17">
+        <v>0.00403052093865001</v>
+      </c>
+      <c r="P17">
+        <v>0.004035374510811824</v>
+      </c>
+      <c r="Q17">
+        <v>0.07005914898066667</v>
+      </c>
+      <c r="R17">
+        <v>0.6305323408260001</v>
+      </c>
+      <c r="S17">
+        <v>0.0005041441586230988</v>
+      </c>
+      <c r="T17">
+        <v>0.0005047512513763878</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="F18">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G18">
+        <v>0.398681</v>
+      </c>
+      <c r="H18">
+        <v>1.196043</v>
+      </c>
+      <c r="I18">
+        <v>0.1250816374103636</v>
+      </c>
+      <c r="J18">
+        <v>0.1250816374103636</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>0.362774</v>
+      </c>
+      <c r="N18">
+        <v>1.088322</v>
+      </c>
+      <c r="O18">
+        <v>0.008320664607276909</v>
+      </c>
+      <c r="P18">
+        <v>0.008330684390506021</v>
+      </c>
+      <c r="Q18">
+        <v>0.144631101094</v>
+      </c>
+      <c r="R18">
+        <v>1.301679909846</v>
+      </c>
+      <c r="S18">
+        <v>0.001040762353420656</v>
+      </c>
+      <c r="T18">
+        <v>0.00104201564431345</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="F19">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G19">
+        <v>0.398681</v>
+      </c>
+      <c r="H19">
+        <v>1.196043</v>
+      </c>
+      <c r="I19">
+        <v>0.1250816374103636</v>
+      </c>
+      <c r="J19">
+        <v>0.1250816374103636</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>18.888837</v>
+      </c>
+      <c r="N19">
+        <v>56.666511</v>
+      </c>
+      <c r="O19">
+        <v>0.4332385383145499</v>
+      </c>
+      <c r="P19">
+        <v>0.4337602461882952</v>
+      </c>
+      <c r="Q19">
+        <v>7.530620423997</v>
+      </c>
+      <c r="R19">
+        <v>67.77558381597299</v>
+      </c>
+      <c r="S19">
+        <v>0.05419018576165644</v>
+      </c>
+      <c r="T19">
+        <v>0.05425544183675438</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>2</v>
+      </c>
+      <c r="F20">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G20">
+        <v>0.398681</v>
+      </c>
+      <c r="H20">
+        <v>1.196043</v>
+      </c>
+      <c r="I20">
+        <v>0.1250816374103636</v>
+      </c>
+      <c r="J20">
+        <v>0.1250816374103636</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>24.01450566666666</v>
+      </c>
+      <c r="N20">
+        <v>72.04351699999999</v>
+      </c>
+      <c r="O20">
+        <v>0.5508020072052686</v>
+      </c>
+      <c r="P20">
+        <v>0.5514652855580013</v>
+      </c>
+      <c r="Q20">
+        <v>9.574127133692333</v>
+      </c>
+      <c r="R20">
+        <v>86.16714420323099</v>
+      </c>
+      <c r="S20">
+        <v>0.06889521695014987</v>
+      </c>
+      <c r="T20">
+        <v>0.06897818089256853</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" t="s">
+        <v>26</v>
+      </c>
+      <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="F21">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G21">
+        <v>0.398681</v>
+      </c>
+      <c r="H21">
+        <v>1.196043</v>
+      </c>
+      <c r="I21">
+        <v>0.1250816374103636</v>
+      </c>
+      <c r="J21">
+        <v>0.1250816374103636</v>
+      </c>
+      <c r="K21">
+        <v>2</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>0.1573175</v>
+      </c>
+      <c r="N21">
+        <v>0.314635</v>
+      </c>
+      <c r="O21">
+        <v>0.003608268934254619</v>
+      </c>
+      <c r="P21">
+        <v>0.002408409352385472</v>
+      </c>
+      <c r="Q21">
+        <v>0.0627194982175</v>
+      </c>
+      <c r="R21">
+        <v>0.376316989305</v>
+      </c>
+      <c r="S21">
+        <v>0.0004513281865135152</v>
+      </c>
+      <c r="T21">
+        <v>0.0003012477853508082</v>
       </c>
     </row>
   </sheetData>
